--- a/outputs-HGR-r202-archive/g__UBA1685_train.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA1685_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,7 +687,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_11.fasta</t>
+          <t>label_UMGS106_15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_18.fasta</t>
+          <t>label_UMGS106_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -729,7 +729,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_2.fasta</t>
+          <t>label_UMGS106_4.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -750,7 +750,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_3.fasta</t>
+          <t>label_UMGS106_9.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,7 +771,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_15.fasta</t>
+          <t>label_UMGS106_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -792,7 +792,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_16.fasta</t>
+          <t>label_UMGS106_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -813,7 +813,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_4.fasta</t>
+          <t>label_UMGS106_22.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_9.fasta</t>
+          <t>label_UMGS106_5.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_0.fasta</t>
+          <t>label_UMGS106_6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,7 +876,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_10.fasta</t>
+          <t>label_UMGS106_13.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -897,7 +897,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_22.fasta</t>
+          <t>label_UMGS106_17.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_5.fasta</t>
+          <t>label_UMGS106_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_6.fasta</t>
+          <t>label_UMGS106_8.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_13.fasta</t>
+          <t>label_UMGS106_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_17.fasta</t>
+          <t>label_UMGS106_12.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_19.fasta</t>
+          <t>label_UMGS106_14.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_8.fasta</t>
+          <t>label_UMGS106_20.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_1.fasta</t>
+          <t>label_UMGS106_21.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,28 +1065,28 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_12.fasta</t>
+          <t>label_UMGS106_23.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.2537313</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.7462687000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.7462687000000001</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>s__UBA1685 sp002320595</t>
+          <t>s__UBA1685 sp900546845</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS106_14.fasta</t>
+          <t>label_UMGS106_7.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1099,90 +1099,6 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp002320595</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS106_20.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp002320595</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS106_21.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp002320595</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS106_23.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.2537313</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.7462687000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.7462687000000001</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS106_7.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>s__UBA1685 sp002320595</t>
         </is>
@@ -1199,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,17 +1342,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_19.fasta</t>
+          <t>label_UMGS922_1.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3030303</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.6969697</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.6969697</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1447,7 +1363,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_25.fasta</t>
+          <t>label_UMGS922_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1468,7 +1384,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_26.fasta</t>
+          <t>label_UMGS922_14.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1489,7 +1405,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_3.fasta</t>
+          <t>label_UMGS922_21.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1510,7 +1426,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_34.fasta</t>
+          <t>label_UMGS922_22.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1531,7 +1447,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_36.fasta</t>
+          <t>label_UMGS922_24.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1552,7 +1468,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_41.fasta</t>
+          <t>label_UMGS922_28.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1573,7 +1489,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_42.fasta</t>
+          <t>label_UMGS922_29.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1594,7 +1510,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_51.fasta</t>
+          <t>label_UMGS922_40.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1615,7 +1531,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_54.fasta</t>
+          <t>label_UMGS922_44.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1636,7 +1552,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_55.fasta</t>
+          <t>label_UMGS922_49.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1657,7 +1573,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_57.fasta</t>
+          <t>label_UMGS922_52.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1678,17 +1594,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_1.fasta</t>
+          <t>label_UMGS922_56.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3030303</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6969697</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6969697</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1699,7 +1615,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_10.fasta</t>
+          <t>label_UMGS922_0.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1720,7 +1636,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_14.fasta</t>
+          <t>label_UMGS922_13.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1741,7 +1657,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_21.fasta</t>
+          <t>label_UMGS922_15.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1762,7 +1678,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_22.fasta</t>
+          <t>label_UMGS922_17.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1783,7 +1699,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_24.fasta</t>
+          <t>label_UMGS922_23.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1804,7 +1720,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_28.fasta</t>
+          <t>label_UMGS922_32.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1825,7 +1741,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_29.fasta</t>
+          <t>label_UMGS922_33.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1846,7 +1762,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_40.fasta</t>
+          <t>label_UMGS922_37.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1867,7 +1783,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_44.fasta</t>
+          <t>label_UMGS922_47.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1888,7 +1804,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_49.fasta</t>
+          <t>label_UMGS922_50.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1909,7 +1825,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_52.fasta</t>
+          <t>label_UMGS922_7.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1930,7 +1846,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_56.fasta</t>
+          <t>label_UMGS922_9.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1951,7 +1867,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_0.fasta</t>
+          <t>label_UMGS922_11.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1972,7 +1888,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_13.fasta</t>
+          <t>label_UMGS922_12.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1993,7 +1909,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_15.fasta</t>
+          <t>label_UMGS922_16.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2014,7 +1930,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_17.fasta</t>
+          <t>label_UMGS922_2.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2035,7 +1951,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_23.fasta</t>
+          <t>label_UMGS922_20.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2056,7 +1972,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_32.fasta</t>
+          <t>label_UMGS922_30.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2077,7 +1993,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_33.fasta</t>
+          <t>label_UMGS922_35.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2098,7 +2014,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_37.fasta</t>
+          <t>label_UMGS922_38.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2119,7 +2035,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_47.fasta</t>
+          <t>label_UMGS922_4.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2140,7 +2056,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_50.fasta</t>
+          <t>label_UMGS922_45.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2161,7 +2077,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_7.fasta</t>
+          <t>label_UMGS922_46.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2182,7 +2098,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_9.fasta</t>
+          <t>label_UMGS922_48.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2203,7 +2119,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_11.fasta</t>
+          <t>label_UMGS922_58.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2224,7 +2140,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_12.fasta</t>
+          <t>label_UMGS922_18.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2245,7 +2161,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_16.fasta</t>
+          <t>label_UMGS922_27.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2266,7 +2182,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_2.fasta</t>
+          <t>label_UMGS922_31.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2287,7 +2203,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_20.fasta</t>
+          <t>label_UMGS922_39.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2308,7 +2224,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_30.fasta</t>
+          <t>label_UMGS922_43.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2329,7 +2245,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_35.fasta</t>
+          <t>label_UMGS922_5.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2350,7 +2266,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_38.fasta</t>
+          <t>label_UMGS922_53.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2371,7 +2287,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_4.fasta</t>
+          <t>label_UMGS922_6.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2392,7 +2308,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS922_45.fasta</t>
+          <t>label_UMGS922_8.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2405,258 +2321,6 @@
         <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_46.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_48.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_58.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_18.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_27.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_31.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_39.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_43.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_5.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_53.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_6.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__UBA1685 sp900546845</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS922_8.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>s__UBA1685 sp900546845</t>
         </is>
